--- a/example.xlsx
+++ b/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="415">
   <si>
     <t>дівчина</t>
   </si>
@@ -640,9 +640,6 @@
     <t>допомагати</t>
   </si>
   <si>
-    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/take?q=take+</t>
-  </si>
-  <si>
     <t>to take</t>
   </si>
   <si>
@@ -743,6 +740,531 @@
   </si>
   <si>
     <t>https://img.freepik.com/premium-photo/luxurious-stay-female-guest-receiving-room-key-card-highend-hotel_1247367-89195.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_keywords_boost</t>
+  </si>
+  <si>
+    <t>одружуватися; женитися</t>
+  </si>
+  <si>
+    <t>ˈmӕri</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/groom-puts-bride-ring_360749-4089.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/marry</t>
+  </si>
+  <si>
+    <t>to marry</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/carry</t>
+  </si>
+  <si>
+    <t>ˈkӕri</t>
+  </si>
+  <si>
+    <t>to carry</t>
+  </si>
+  <si>
+    <t>носити, переносити</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/side-view-delivery-man-carrying-water-bottle_23-2148382530.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/decide</t>
+  </si>
+  <si>
+    <t>to decide</t>
+  </si>
+  <si>
+    <t>diˈsaid</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/man-thinking-confusing-with-three-blue-arrows-showing-three-different-directions_441797-6716.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>вирішувати(ся); прийняти рішення</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/ask</t>
+  </si>
+  <si>
+    <t>aːsk</t>
+  </si>
+  <si>
+    <t>питати</t>
+  </si>
+  <si>
+    <t>to ask</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/mysterious-person-with-question-mark-head-isolated_407474-65964.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/portrait-woman-showing-strong-emotions-mental-health-awareness_23-2151728102.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>krai</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/cry</t>
+  </si>
+  <si>
+    <t>плакати</t>
+  </si>
+  <si>
+    <t>to cry</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/caucasian-male-studying-literature-indoors-library-generated-by-ai_188544-38939.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>to study</t>
+  </si>
+  <si>
+    <t>ˈstadi</t>
+  </si>
+  <si>
+    <t>вивчати; навчатися</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/study</t>
+  </si>
+  <si>
+    <t>to clean</t>
+  </si>
+  <si>
+    <t>чистити; протирати</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/vacuum-cleaner-tackling-heavily-soiled-floor_23-2151340101.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/clean</t>
+  </si>
+  <si>
+    <t>to jump</t>
+  </si>
+  <si>
+    <t>dʒamp</t>
+  </si>
+  <si>
+    <t>kliːn</t>
+  </si>
+  <si>
+    <t>стрибати, скакати</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/jump</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/3d-portrait-person-jumping_23-2150793947.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/start</t>
+  </si>
+  <si>
+    <t>staː</t>
+  </si>
+  <si>
+    <t>починати; братися</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/rocket-launching-from-laptop-screen_162378-10979.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>heit</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/hate</t>
+  </si>
+  <si>
+    <t>ненавидіти</t>
+  </si>
+  <si>
+    <t>to hate</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/concept-person-suffering-from-cybersickness-technology-addiction_23-2151552674.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>to visit</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>to call</t>
+  </si>
+  <si>
+    <t>to climb</t>
+  </si>
+  <si>
+    <t>to kiss</t>
+  </si>
+  <si>
+    <t>to return</t>
+  </si>
+  <si>
+    <t>to stay</t>
+  </si>
+  <si>
+    <t>ˈvizit</t>
+  </si>
+  <si>
+    <t>відвідувати; оглядати</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/watch</t>
+  </si>
+  <si>
+    <t>wotʃ</t>
+  </si>
+  <si>
+    <t>стежити</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/visit</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/take</t>
+  </si>
+  <si>
+    <t>plei</t>
+  </si>
+  <si>
+    <t>грати(ся), пустувати</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/play</t>
+  </si>
+  <si>
+    <t>koːl</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/call</t>
+  </si>
+  <si>
+    <t>дзвонити; називати</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/climb</t>
+  </si>
+  <si>
+    <t>klaim</t>
+  </si>
+  <si>
+    <t>вилазити; лізти; підійматися</t>
+  </si>
+  <si>
+    <t>kis</t>
+  </si>
+  <si>
+    <t>цілувати(ся); чоломкатися</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/kiss</t>
+  </si>
+  <si>
+    <t>повертатися</t>
+  </si>
+  <si>
+    <t>rəˈtəːn</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/return</t>
+  </si>
+  <si>
+    <t>stei</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/stay</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/empire-state-building-hand-with-papaer_23-2150897668.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/person-wearing-futuristic-high-tech-virtual-reality-glasses_23-2151141644.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/family-creating-digital-content_23-2151507273.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/close-up-portrait-smiling-blond-woman-sitting-table-outside-cafe-talking-mobile-phone_1258-209134.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/young-couple-kissing-yacht_328946-19694.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/woman-bouldering-spot_23-2151750263.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/businessman-working-futuristic-office_23-2151003706.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/portrait-person-ice-skating-outdoors-winter-time_23-2151396856.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>зупинятися</t>
+  </si>
+  <si>
+    <t>a winter</t>
+  </si>
+  <si>
+    <t>ˈwintə</t>
+  </si>
+  <si>
+    <t>зима</t>
+  </si>
+  <si>
+    <t>a spring</t>
+  </si>
+  <si>
+    <t>a summer</t>
+  </si>
+  <si>
+    <t>весна</t>
+  </si>
+  <si>
+    <t>літо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a fall </t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/fall</t>
+  </si>
+  <si>
+    <t>foːl</t>
+  </si>
+  <si>
+    <t>осінь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a autumn </t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/autumn</t>
+  </si>
+  <si>
+    <t>ˈoːtəm</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/spring</t>
+  </si>
+  <si>
+    <t>spriŋ</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/summer</t>
+  </si>
+  <si>
+    <t>ˈsamə</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/beautiful-fresh-blue-spring-flowers_162695-17351.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/photorealistic-view-tree-nature-with-branches-trunk_23-2151478064.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/view-summer-pool-float_23-2151159961.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/ai-generated-fall-leaves_23-2150648511.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/ai-generated-fall-leaves_23-2150648473.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>ˈdʒӕnjuəri</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/january</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/winter</t>
+  </si>
+  <si>
+    <t>січень</t>
+  </si>
+  <si>
+    <t>лютий</t>
+  </si>
+  <si>
+    <t>ˈfebruəri</t>
+  </si>
+  <si>
+    <t>maːtʃ</t>
+  </si>
+  <si>
+    <t>березень</t>
+  </si>
+  <si>
+    <t>ˈeiprəl</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/april</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/february</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/march</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/may</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/june</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/july</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/august</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/september</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/october</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/november</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/december</t>
+  </si>
+  <si>
+    <t>квітень</t>
+  </si>
+  <si>
+    <t>mei</t>
+  </si>
+  <si>
+    <t>травень</t>
+  </si>
+  <si>
+    <t>dʒuːn</t>
+  </si>
+  <si>
+    <t>червень</t>
+  </si>
+  <si>
+    <t>липень</t>
+  </si>
+  <si>
+    <t>dʒuˈlai</t>
+  </si>
+  <si>
+    <t>серпень</t>
+  </si>
+  <si>
+    <t>ˈoːɡəst</t>
+  </si>
+  <si>
+    <t>вересень</t>
+  </si>
+  <si>
+    <t>səpˈtembə</t>
+  </si>
+  <si>
+    <t>okˈtəubə</t>
+  </si>
+  <si>
+    <t>жовтень</t>
+  </si>
+  <si>
+    <t>листопад</t>
+  </si>
+  <si>
+    <t>nəˈvembə</t>
+  </si>
+  <si>
+    <t>грудень</t>
+  </si>
+  <si>
+    <t>diˈsembə</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/frosty-winter-forest-tranquil-beauty-nature-generated-by-ai_188544-33364.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/homemade-basket-holds-rustic-springtime-tulip-gift-generated-by-ai_188544-13911.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/daisies-poppies-sunny-spring-meadow-horizontal-closeup-with-short-deep-f-generative-ai_874904-95509.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/winter-background-tea-cup-book-sweater-winter-frozen-window-cozy-mood_1074281-14811.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/text-march-surrounded-by-tulips-brown-background-concept-outdoor-photoshoot-colorful-props-joyful-portraits-playful-poses_864588-42356.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/summer-wildflower-meadow_23-2151956331.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/woman-bikini-sits-sand-with-stars-stripes-her-head_950053-18685.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/sunset-golden-fields_23-2151956319.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/vibrant-autumn-landscape-multi-colored-leaves-nature-beauty-generative-ai_188544-31844.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/autumn-season-still-life_23-2151840139.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/dry-autumn-leaves-with-snow-beginning-winter_23-2150719563.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/christmas-celebration-concept_23-2150977082.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1348,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1130,10 +1669,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,10 +2775,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" t="s">
         <v>207</v>
-      </c>
-      <c r="C40" t="s">
-        <v>208</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -2248,13 +2787,13 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="I40" s="3"/>
     </row>
@@ -2263,10 +2802,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -2275,13 +2814,13 @@
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I41" s="3"/>
     </row>
@@ -2290,10 +2829,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -2302,13 +2841,13 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I42" s="3"/>
     </row>
@@ -2317,10 +2856,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2329,13 +2868,13 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2343,10 +2882,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2355,13 +2894,13 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2369,10 +2908,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -2381,13 +2920,13 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2395,10 +2934,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2407,13 +2946,923 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>239</v>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>348</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>340</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>355</v>
+      </c>
+      <c r="C70" t="s">
+        <v>369</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
+      <c r="C71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>371</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>372</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>374</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" t="s">
+        <v>390</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>392</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>396</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>398</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
+        <v>399</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>400</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>402</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2434,25 +3883,26 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>SUMIF($B2:$B1000,O3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1"/>
     <hyperlink ref="C20" r:id="rId2" display="https://context.reverso.net/t%C5%82umaczenie/ukrai%C5%84ski-angielski/%D0%BE%D1%82%D1%80%D0%B8%D0%BC%D1%83%D0%B2%D0%B0%D1%82%D0%B8+%D0%B7%D0%B0%D0%B4%D0%BE%D0%B2%D0%BE%D0%BB%D0%B5%D0%BD%D0%BD%D1%8F"/>
     <hyperlink ref="H34" r:id="rId3"/>
+    <hyperlink ref="H65" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="B47:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
+    <ignoredError sqref="B82:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/example.xlsx
+++ b/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="509">
   <si>
     <t>дівчина</t>
   </si>
@@ -265,9 +265,6 @@
     <t>mis</t>
   </si>
   <si>
-    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/miss?q=miss+</t>
-  </si>
-  <si>
     <t>сумувати за кимсь/чимсь</t>
   </si>
   <si>
@@ -1265,6 +1262,291 @@
   </si>
   <si>
     <t>https://img.freepik.com/free-photo/christmas-celebration-concept_23-2150977082.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_country_boost&amp;w=740</t>
+  </si>
+  <si>
+    <t>a brain</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/brain</t>
+  </si>
+  <si>
+    <t>мозок</t>
+  </si>
+  <si>
+    <t>brein</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/view-brain-underwater_23-2150834003.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>to wait</t>
+  </si>
+  <si>
+    <t>weit</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/wait</t>
+  </si>
+  <si>
+    <t>чекати</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/business-man-drinking-coffee-airport-waiting-area-handsome-business-man-sitting-airport-lounge-wait-plane-travel-business_401949-5413.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>головний</t>
+  </si>
+  <si>
+    <t>mein</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/main</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/enjoying-street-food-fest_23-2151543836.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>ніготь; кіготь</t>
+  </si>
+  <si>
+    <t>a nail</t>
+  </si>
+  <si>
+    <t>neil</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/nail</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/womans-hand-holding-bottle-with-nail-polish-white-wall-manicure-design-trends_113876-2708.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>a train</t>
+  </si>
+  <si>
+    <t>trein</t>
+  </si>
+  <si>
+    <t>поїзд, потяг, ешелон</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/train</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/autumn-train-outdoors-vehicle_53876-442249.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>meil</t>
+  </si>
+  <si>
+    <t>a mail</t>
+  </si>
+  <si>
+    <t>пошта</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/hand-extends-into-open-mailbox_157027-3213.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/mail</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/miss</t>
+  </si>
+  <si>
+    <t>to mail</t>
+  </si>
+  <si>
+    <t>надсилати поштою</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/mailbox-with-letter-it-that-says-mail-it_960117-7360.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>feil</t>
+  </si>
+  <si>
+    <t>to fail</t>
+  </si>
+  <si>
+    <t>зазнати невдачі; не зробити</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/fail</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/contemporary-workspace-startled-employee-faces-humorous-disaster-coffee-splattering-onto-laptop-amid-important-meeting_117038-79632.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>град</t>
+  </si>
+  <si>
+    <t>heil</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/hail</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/destructive-hailstorm-hitting-suburban-area-with-large-hailstones-damaging-roofs-cars_955712-35608.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>eim</t>
+  </si>
+  <si>
+    <t>to aim</t>
+  </si>
+  <si>
+    <t>прагнути; намагатися</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/aim</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/focused-woman-sharpens-her-archery-skills-eyes-locked-her-target-outdoor-range-unleash_660230-84395.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>a grain</t>
+  </si>
+  <si>
+    <t>зернина</t>
+  </si>
+  <si>
+    <t>ɡrein</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/grain</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/sunset-golden-wheat-field-nature-vibrant-harvest-generated-by-artificial-intelligence_25030-67195.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>to gain</t>
+  </si>
+  <si>
+    <t>ɡein</t>
+  </si>
+  <si>
+    <t>одержувати; здобувати</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/gain</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/fantasy-style-scene-international-day-education_23-2151040315.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>a hair</t>
+  </si>
+  <si>
+    <t>heə</t>
+  </si>
+  <si>
+    <t>волосина</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/hair</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/elegant-woman-with-shiny-brown-wavy-hair_23-2151968653.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>feə</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/fair</t>
+  </si>
+  <si>
+    <t>білявий</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/beautiful-woman-with-long-curly-blond-hair-smiling-camera-generated-by-artificial-intelligence_188544-94283.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/airport</t>
+  </si>
+  <si>
+    <t>an airport</t>
+  </si>
+  <si>
+    <t>ˈer.pɔːrt</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/3d-rendering-airport-building_23-2150896654.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>аеропорт</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/chair</t>
+  </si>
+  <si>
+    <t>стілець</t>
+  </si>
+  <si>
+    <t>tʃeə</t>
+  </si>
+  <si>
+    <t>a chair</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/png-chair-furniture-armchair-white_53876-868802.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/air-conditioner-modern-living-room_1276750-14303.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>eə</t>
+  </si>
+  <si>
+    <t>повітря</t>
+  </si>
+  <si>
+    <t>uncountable</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/air</t>
+  </si>
+  <si>
+    <t>фея, чарівниця</t>
+  </si>
+  <si>
+    <t>a fairy</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/fairy</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/3d-rendering-cute-fairy_23-2151575788.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>ˈfeəri</t>
+  </si>
+  <si>
+    <t>a fairy tale</t>
+  </si>
+  <si>
+    <t>казка</t>
+  </si>
+  <si>
+    <t>ə ˈferi teɪl</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/fairy-tale</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/fairytale-scene-coming-out-book_23-2151778616.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>hail</t>
   </si>
 </sst>
 </file>
@@ -1332,40 +1614,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1669,49 +1937,49 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
+      <c r="G1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1739,62 +2007,62 @@
       <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>113</v>
       </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1821,18 +2089,18 @@
       <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -1841,16 +2109,16 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1877,18 +2145,18 @@
       <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -1897,16 +2165,16 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1933,18 +2201,18 @@
       <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -1953,16 +2221,16 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1989,8 +2257,8 @@
       <c r="H11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2017,15 +2285,15 @@
       <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -2045,8 +2313,8 @@
       <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2073,8 +2341,8 @@
       <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2084,7 +2352,7 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -2101,18 +2369,18 @@
       <c r="H15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -2124,13 +2392,13 @@
         <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2157,18 +2425,18 @@
       <c r="H17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -2177,26 +2445,26 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -2205,54 +2473,54 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2261,16 +2529,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2297,8 +2565,8 @@
       <c r="H22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2325,18 +2593,18 @@
       <c r="H23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
         <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2345,26 +2613,26 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2373,26 +2641,26 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -2401,26 +2669,26 @@
         <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
         <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -2429,26 +2697,26 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2457,26 +2725,26 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -2485,26 +2753,26 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -2513,26 +2781,26 @@
         <v>31</v>
       </c>
       <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -2541,16 +2809,16 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2577,8 +2845,8 @@
       <c r="H32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="M32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -2605,18 +2873,18 @@
       <c r="H33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="M33" s="4"/>
+      <c r="I33" s="2"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -2625,25 +2893,25 @@
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -2652,25 +2920,25 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I35" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2679,25 +2947,25 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" t="s">
-        <v>192</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2706,25 +2974,25 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
         <v>196</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -2733,25 +3001,25 @@
         <v>31</v>
       </c>
       <c r="F38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" t="s">
         <v>204</v>
-      </c>
-      <c r="C39" t="s">
-        <v>205</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
@@ -2760,25 +3028,25 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
         <v>206</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -2787,25 +3055,25 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I40" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -2814,25 +3082,25 @@
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -2841,25 +3109,25 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2868,13 +3136,13 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2882,10 +3150,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2894,13 +3162,13 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2908,10 +3176,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -2920,13 +3188,13 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2934,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -2946,13 +3214,13 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2960,10 +3228,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -2972,13 +3240,13 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2986,10 +3254,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
         <v>247</v>
-      </c>
-      <c r="C48" t="s">
-        <v>248</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>
@@ -2998,13 +3266,13 @@
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,10 +3280,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
         <v>30</v>
@@ -3024,13 +3292,13 @@
         <v>31</v>
       </c>
       <c r="F49" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,10 +3306,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
         <v>30</v>
@@ -3050,13 +3318,13 @@
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,10 +3332,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
         <v>30</v>
@@ -3076,13 +3344,13 @@
         <v>31</v>
       </c>
       <c r="F51" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,10 +3358,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
         <v>30</v>
@@ -3102,13 +3370,13 @@
         <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3116,10 +3384,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" t="s">
         <v>270</v>
-      </c>
-      <c r="C53" t="s">
-        <v>271</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
@@ -3128,13 +3396,13 @@
         <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,10 +3410,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
         <v>30</v>
@@ -3154,13 +3422,13 @@
         <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,10 +3436,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
         <v>30</v>
@@ -3180,13 +3448,13 @@
         <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,10 +3462,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
@@ -3206,13 +3474,13 @@
         <v>31</v>
       </c>
       <c r="F56" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3220,10 +3488,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -3232,13 +3500,13 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,10 +3514,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
@@ -3258,13 +3526,13 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,10 +3540,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
         <v>30</v>
@@ -3284,13 +3552,13 @@
         <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,10 +3566,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
         <v>30</v>
@@ -3310,13 +3578,13 @@
         <v>31</v>
       </c>
       <c r="F60" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3324,10 +3592,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
         <v>30</v>
@@ -3336,13 +3604,13 @@
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3350,10 +3618,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
@@ -3362,13 +3630,13 @@
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,10 +3644,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -3388,13 +3656,13 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,10 +3670,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D64" t="s">
         <v>30</v>
@@ -3414,13 +3682,13 @@
         <v>31</v>
       </c>
       <c r="F64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,10 +3696,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -3440,13 +3708,13 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3454,10 +3722,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -3466,13 +3734,13 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,10 +3748,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3492,13 +3760,13 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,10 +3774,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -3518,13 +3786,13 @@
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,10 +3800,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3544,13 +3812,13 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,10 +3826,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -3570,13 +3838,13 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3584,10 +3852,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3596,13 +3864,13 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3610,10 +3878,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -3622,13 +3890,13 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,10 +3904,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3648,13 +3916,13 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,10 +3930,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3674,13 +3942,13 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,10 +3956,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -3700,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,10 +3982,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3726,13 +3994,13 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,10 +4008,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -3752,13 +4020,13 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -3778,13 +4046,13 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,10 +4060,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3804,13 +4072,13 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,10 +4086,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -3830,13 +4098,13 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,10 +4112,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -3856,13 +4124,507 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>414</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>385</v>
+      <c r="C82" t="s">
+        <v>416</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>419</v>
+      </c>
+      <c r="C83" t="s">
+        <v>422</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" t="s">
+        <v>420</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" t="s">
+        <v>426</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" t="s">
+        <v>429</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" t="s">
+        <v>436</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>435</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>440</v>
+      </c>
+      <c r="C87" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>439</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C88" t="s">
+        <v>446</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>449</v>
+      </c>
+      <c r="C89" t="s">
+        <v>450</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" t="s">
+        <v>448</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>508</v>
+      </c>
+      <c r="C90" t="s">
+        <v>453</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>495</v>
+      </c>
+      <c r="F90" t="s">
+        <v>454</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>457</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>464</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93" t="s">
+        <v>469</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
+        <v>468</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>472</v>
+      </c>
+      <c r="C94" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" t="s">
+        <v>480</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
+        <v>478</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" t="s">
+        <v>486</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>484</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>490</v>
+      </c>
+      <c r="C97" t="s">
+        <v>488</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>489</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>496</v>
+      </c>
+      <c r="C98" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>495</v>
+      </c>
+      <c r="F98" t="s">
+        <v>493</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>499</v>
+      </c>
+      <c r="C99" t="s">
+        <v>498</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>502</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>503</v>
+      </c>
+      <c r="C100" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>505</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -3883,15 +4645,15 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>SUMIF($B2:$B1000,O3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B33">
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1"/>
@@ -3902,7 +4664,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="B82:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
+    <ignoredError sqref="B101:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/example.xlsx
+++ b/example.xlsx
@@ -319,9 +319,6 @@
     <t>отримувати задоволення</t>
   </si>
   <si>
-    <t>ɪnˈdʒɔɪ maɪˈsɛlf</t>
-  </si>
-  <si>
     <t>https://img.freepik.com/premium-photo/smiling-young-woman-bicycle-park-sunset_713655-127813.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_keywords_boost</t>
   </si>
   <si>
@@ -1045,9 +1042,6 @@
     <t>осінь</t>
   </si>
   <si>
-    <t xml:space="preserve">a autumn </t>
-  </si>
-  <si>
     <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/autumn</t>
   </si>
   <si>
@@ -1547,6 +1541,12 @@
   </si>
   <si>
     <t>hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an autumn </t>
+  </si>
+  <si>
+    <t>ɪnˈdʒɔɪ wʌnˌsɛlf</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1939,8 @@
   </sheetPr>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,10 +1976,10 @@
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,25 +2014,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -2041,25 +2041,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="I4" s="2"/>
       <c r="M4" s="2"/>
@@ -2153,10 +2153,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -2165,13 +2165,13 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="2"/>
       <c r="M8" s="2"/>
@@ -2209,10 +2209,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -2221,13 +2221,13 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2"/>
       <c r="M10" s="2"/>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -2377,7 +2377,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -2395,7 +2395,7 @@
         <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I16" s="2"/>
       <c r="M16" s="2"/>
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>97</v>
@@ -2489,25 +2489,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
+        <v>508</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="2"/>
       <c r="M20" s="2"/>
@@ -2517,10 +2517,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -2529,13 +2529,13 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I21" s="2"/>
       <c r="M21" s="2"/>
@@ -2601,10 +2601,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -2613,13 +2613,13 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="2"/>
       <c r="M24" s="2"/>
@@ -2629,10 +2629,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2641,13 +2641,13 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I25" s="2"/>
       <c r="M25" s="2"/>
@@ -2657,10 +2657,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -2669,13 +2669,13 @@
         <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="2"/>
       <c r="M26" s="2"/>
@@ -2685,10 +2685,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
         <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -2697,13 +2697,13 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="I27" s="2"/>
       <c r="M27" s="2"/>
@@ -2713,10 +2713,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2725,13 +2725,13 @@
         <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I28" s="2"/>
       <c r="M28" s="2"/>
@@ -2741,10 +2741,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -2753,13 +2753,13 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I29" s="2"/>
       <c r="M29" s="2"/>
@@ -2769,10 +2769,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
@@ -2781,13 +2781,13 @@
         <v>31</v>
       </c>
       <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="I30" s="2"/>
       <c r="M30" s="2"/>
@@ -2797,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
         <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -2809,13 +2809,13 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I31" s="2"/>
       <c r="M31" s="2"/>
@@ -2881,10 +2881,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
@@ -2893,13 +2893,13 @@
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2908,10 +2908,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -2920,13 +2920,13 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2935,10 +2935,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2947,13 +2947,13 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2962,10 +2962,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
         <v>190</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2974,13 +2974,13 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2989,10 +2989,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" t="s">
         <v>195</v>
-      </c>
-      <c r="C38" t="s">
-        <v>196</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -3001,13 +3001,13 @@
         <v>31</v>
       </c>
       <c r="F38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -3016,10 +3016,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s">
         <v>203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>204</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
@@ -3028,13 +3028,13 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3043,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
         <v>205</v>
-      </c>
-      <c r="C40" t="s">
-        <v>206</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -3055,13 +3055,13 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3070,10 +3070,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -3082,13 +3082,13 @@
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3097,10 +3097,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -3109,13 +3109,13 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3124,10 +3124,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -3136,13 +3136,13 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3150,10 +3150,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -3162,13 +3162,13 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3176,10 +3176,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -3188,13 +3188,13 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -3214,13 +3214,13 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3228,10 +3228,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -3240,13 +3240,13 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,10 +3254,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
         <v>246</v>
-      </c>
-      <c r="C48" t="s">
-        <v>247</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>
@@ -3266,13 +3266,13 @@
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,10 +3280,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
         <v>30</v>
@@ -3292,13 +3292,13 @@
         <v>31</v>
       </c>
       <c r="F49" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3306,10 +3306,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
         <v>30</v>
@@ -3318,13 +3318,13 @@
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3332,10 +3332,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
         <v>30</v>
@@ -3344,13 +3344,13 @@
         <v>31</v>
       </c>
       <c r="F51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
         <v>30</v>
@@ -3370,13 +3370,13 @@
         <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3384,10 +3384,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" t="s">
         <v>269</v>
-      </c>
-      <c r="C53" t="s">
-        <v>270</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
@@ -3396,13 +3396,13 @@
         <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3410,10 +3410,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D54" t="s">
         <v>30</v>
@@ -3422,13 +3422,13 @@
         <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3436,10 +3436,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
         <v>30</v>
@@ -3448,13 +3448,13 @@
         <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3462,10 +3462,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
@@ -3474,13 +3474,13 @@
         <v>31</v>
       </c>
       <c r="F56" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,10 +3488,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -3500,13 +3500,13 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,10 +3514,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
@@ -3526,13 +3526,13 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3540,10 +3540,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D59" t="s">
         <v>30</v>
@@ -3552,13 +3552,13 @@
         <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3566,10 +3566,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D60" t="s">
         <v>30</v>
@@ -3578,13 +3578,13 @@
         <v>31</v>
       </c>
       <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
         <v>30</v>
@@ -3604,13 +3604,13 @@
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3618,10 +3618,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
@@ -3630,13 +3630,13 @@
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3644,10 +3644,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D63" t="s">
         <v>30</v>
@@ -3656,13 +3656,13 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3670,10 +3670,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D64" t="s">
         <v>30</v>
@@ -3682,13 +3682,13 @@
         <v>31</v>
       </c>
       <c r="F64" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,10 +3696,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -3708,13 +3708,13 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3722,10 +3722,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -3734,13 +3734,13 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,10 +3748,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3760,13 +3760,13 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3774,10 +3774,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -3786,13 +3786,13 @@
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3800,10 +3800,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>507</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3812,13 +3812,13 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3826,10 +3826,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -3838,13 +3838,13 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3852,10 +3852,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -3864,13 +3864,13 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3878,10 +3878,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -3890,13 +3890,13 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -3916,13 +3916,13 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3930,10 +3930,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3942,13 +3942,13 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3956,10 +3956,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -3968,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3982,10 +3982,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -3994,13 +3994,13 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,10 +4008,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -4020,13 +4020,13 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4034,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -4046,13 +4046,13 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4060,10 +4060,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -4072,13 +4072,13 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,10 +4086,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
@@ -4098,13 +4098,13 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,10 +4112,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C81" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -4124,13 +4124,13 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,10 +4138,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" t="s">
         <v>414</v>
-      </c>
-      <c r="C82" t="s">
-        <v>416</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -4150,13 +4150,13 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4164,10 +4164,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D83" t="s">
         <v>30</v>
@@ -4176,13 +4176,13 @@
         <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4190,10 +4190,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D84" t="s">
         <v>44</v>
@@ -4202,13 +4202,13 @@
         <v>31</v>
       </c>
       <c r="F84" t="s">
+        <v>424</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4216,10 +4216,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -4228,13 +4228,13 @@
         <v>13</v>
       </c>
       <c r="F85" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,10 +4242,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" t="s">
         <v>434</v>
-      </c>
-      <c r="C86" t="s">
-        <v>436</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -4254,13 +4254,13 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
+        <v>433</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,10 +4268,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -4280,13 +4280,13 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4294,10 +4294,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D88" t="s">
         <v>30</v>
@@ -4306,13 +4306,13 @@
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D89" t="s">
         <v>30</v>
@@ -4332,13 +4332,13 @@
         <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4346,25 +4346,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C90" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F90" t="s">
+        <v>452</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,10 +4372,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
@@ -4384,13 +4384,13 @@
         <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4398,10 +4398,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -4410,13 +4410,13 @@
         <v>13</v>
       </c>
       <c r="F92" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4424,10 +4424,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" t="s">
         <v>467</v>
-      </c>
-      <c r="C93" t="s">
-        <v>469</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
@@ -4436,13 +4436,13 @@
         <v>31</v>
       </c>
       <c r="F93" t="s">
+        <v>466</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,10 +4450,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>470</v>
+      </c>
+      <c r="C94" t="s">
         <v>472</v>
-      </c>
-      <c r="C94" t="s">
-        <v>474</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -4462,13 +4462,13 @@
         <v>13</v>
       </c>
       <c r="F94" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4476,10 +4476,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C95" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D95" t="s">
         <v>44</v>
@@ -4488,13 +4488,13 @@
         <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,10 +4502,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C96" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -4514,13 +4514,13 @@
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4528,10 +4528,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C97" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -4540,13 +4540,13 @@
         <v>13</v>
       </c>
       <c r="F97" t="s">
+        <v>487</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4554,25 +4554,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C98" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98" t="s">
+        <v>493</v>
+      </c>
+      <c r="F98" t="s">
+        <v>491</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="F98" t="s">
-        <v>493</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4580,10 +4580,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C99" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -4592,13 +4592,13 @@
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C100" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -4618,13 +4618,13 @@
         <v>13</v>
       </c>
       <c r="F100" t="s">
+        <v>503</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="514">
   <si>
     <t>дівчина</t>
   </si>
@@ -1547,6 +1547,21 @@
   </si>
   <si>
     <t>ɪnˈdʒɔɪ wʌnˌsɛlf</t>
+  </si>
+  <si>
+    <t>a preposition</t>
+  </si>
+  <si>
+    <t>prepəˈziʃən</t>
+  </si>
+  <si>
+    <t>https://dictionary.cambridge.org/dictionary/english-ukrainian/preposition</t>
+  </si>
+  <si>
+    <t>прийменник</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/view-adorable-kitten-with-plant-pop_23-2150758030.jpg?ga=GA1.1.252512678.1731170037&amp;semt=ais_hybrid&amp;w=740</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1952,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,6 +4640,29 @@
       </c>
       <c r="H100" s="1" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>509</v>
+      </c>
+      <c r="C101" t="s">
+        <v>512</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>510</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -4664,7 +4702,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="B101:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
+    <ignoredError sqref="B102:B1048576 B24:B31 B9 B18:B21 B11:B16" evalError="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/example.xlsx
+++ b/example.xlsx
@@ -1954,8 +1954,8 @@
   </sheetPr>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,6 +4643,9 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>509</v>
       </c>
